--- a/dataanalysis/data/predictions/1600/09221516_1518.xlsx
+++ b/dataanalysis/data/predictions/1600/09221516_1518.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="165">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-22</t>
   </si>
   <si>
@@ -506,12 +509,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -869,13 +866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH67"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,19 +975,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300007</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0.62</v>
@@ -1008,7 +1008,7 @@
         <v>221881.65</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -1050,10 +1050,25 @@
         <v>-0.04</v>
       </c>
       <c r="X2" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y2">
+        <v>2.23</v>
+      </c>
+      <c r="Z2">
+        <v>66.98</v>
+      </c>
+      <c r="AA2">
+        <v>5.83</v>
       </c>
       <c r="AC2" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1061,22 +1076,25 @@
       <c r="AG2">
         <v>2.605330228805542</v>
       </c>
-      <c r="AH2" t="s">
-        <v>164</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300043</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-1.14</v>
@@ -1094,7 +1112,7 @@
         <v>62264.06</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -1136,10 +1154,25 @@
         <v>-0.36</v>
       </c>
       <c r="X3" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y3">
+        <v>-2.46</v>
+      </c>
+      <c r="Z3">
+        <v>6.95</v>
+      </c>
+      <c r="AA3">
+        <v>0.58</v>
       </c>
       <c r="AC3" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1147,22 +1180,25 @@
       <c r="AG3">
         <v>1.300559997558594</v>
       </c>
-      <c r="AH3" t="s">
-        <v>164</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300115</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>20.01</v>
@@ -1180,7 +1216,7 @@
         <v>897474.87</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1222,10 +1258,25 @@
         <v>1.6</v>
       </c>
       <c r="X4" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y4">
+        <v>-3.26</v>
+      </c>
+      <c r="Z4">
+        <v>39</v>
+      </c>
+      <c r="AA4">
+        <v>3.39</v>
       </c>
       <c r="AC4" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1233,22 +1284,25 @@
       <c r="AG4">
         <v>8.365995407104492</v>
       </c>
-      <c r="AH4" t="s">
-        <v>164</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300139</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>9.35</v>
@@ -1266,7 +1320,7 @@
         <v>186682.41</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1308,10 +1362,25 @@
         <v>2.08</v>
       </c>
       <c r="X5" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y5">
+        <v>2.06</v>
+      </c>
+      <c r="Z5">
+        <v>29.49</v>
+      </c>
+      <c r="AA5">
+        <v>8.699999999999999</v>
       </c>
       <c r="AC5" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1319,22 +1388,25 @@
       <c r="AG5">
         <v>0.7392717003822327</v>
       </c>
-      <c r="AH5" t="s">
-        <v>164</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300277</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3.65</v>
@@ -1352,7 +1424,7 @@
         <v>57198.37</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -1394,10 +1466,25 @@
         <v>0.1</v>
       </c>
       <c r="X6" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y6">
+        <v>-3.22</v>
+      </c>
+      <c r="Z6">
+        <v>16.39</v>
+      </c>
+      <c r="AA6">
+        <v>-0.49</v>
       </c>
       <c r="AC6" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1405,22 +1492,25 @@
       <c r="AG6">
         <v>1.645396590232849</v>
       </c>
-      <c r="AH6" t="s">
-        <v>164</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300331</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-3.89</v>
@@ -1438,7 +1528,7 @@
         <v>170052.89</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K7">
         <v>12</v>
@@ -1480,10 +1570,25 @@
         <v>-1.71</v>
       </c>
       <c r="X7" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y7">
+        <v>-3.71</v>
+      </c>
+      <c r="Z7">
+        <v>38.56</v>
+      </c>
+      <c r="AA7">
+        <v>-0.59</v>
       </c>
       <c r="AC7" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1491,22 +1596,25 @@
       <c r="AG7">
         <v>4.687877178192139</v>
       </c>
-      <c r="AH7" t="s">
-        <v>164</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300433</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>8.33</v>
@@ -1524,7 +1632,7 @@
         <v>616985.24</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1566,10 +1674,25 @@
         <v>0.28</v>
       </c>
       <c r="X8" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y8">
+        <v>-2.9</v>
+      </c>
+      <c r="Z8">
+        <v>33.26</v>
+      </c>
+      <c r="AA8">
+        <v>0.64</v>
       </c>
       <c r="AC8" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1577,22 +1700,25 @@
       <c r="AG8">
         <v>-37.90347290039062</v>
       </c>
-      <c r="AH8" t="s">
-        <v>164</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300450</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>5.92</v>
@@ -1610,7 +1736,7 @@
         <v>899724.39</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K9">
         <v>17</v>
@@ -1652,10 +1778,25 @@
         <v>0.16</v>
       </c>
       <c r="X9" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y9">
+        <v>7.49</v>
+      </c>
+      <c r="Z9">
+        <v>64.8</v>
+      </c>
+      <c r="AA9">
+        <v>10.04</v>
       </c>
       <c r="AC9" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1663,22 +1804,25 @@
       <c r="AG9">
         <v>2.495070695877075</v>
       </c>
-      <c r="AH9" t="s">
-        <v>164</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300457</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1.99</v>
@@ -1696,7 +1840,7 @@
         <v>116124.62</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K10">
         <v>15</v>
@@ -1738,10 +1882,25 @@
         <v>-0.12</v>
       </c>
       <c r="X10" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y10">
+        <v>4.08</v>
+      </c>
+      <c r="Z10">
+        <v>35.88</v>
+      </c>
+      <c r="AA10">
+        <v>6.03</v>
       </c>
       <c r="AC10" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1749,22 +1908,25 @@
       <c r="AG10">
         <v>4.040380954742432</v>
       </c>
-      <c r="AH10" t="s">
-        <v>164</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300469</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.55</v>
@@ -1782,7 +1944,7 @@
         <v>141421.45</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K11">
         <v>23</v>
@@ -1824,10 +1986,25 @@
         <v>-0.27</v>
       </c>
       <c r="X11" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Y11">
+        <v>-0.29</v>
+      </c>
+      <c r="Z11">
+        <v>89.7</v>
+      </c>
+      <c r="AA11">
+        <v>3.01</v>
       </c>
       <c r="AC11" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1835,22 +2012,25 @@
       <c r="AG11">
         <v>-5.911870002746582</v>
       </c>
-      <c r="AH11" t="s">
-        <v>164</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300475</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>13.07</v>
@@ -1868,7 +2048,7 @@
         <v>501698.25</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K12">
         <v>12</v>
@@ -1910,10 +2090,25 @@
         <v>0.66</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y12">
+        <v>-4.92</v>
+      </c>
+      <c r="Z12">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="AA12">
+        <v>0.38</v>
       </c>
       <c r="AC12" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1921,22 +2116,25 @@
       <c r="AG12">
         <v>17.69432830810547</v>
       </c>
-      <c r="AH12" t="s">
-        <v>164</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300499</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>3.69</v>
@@ -1954,7 +2152,7 @@
         <v>180223.85</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -1996,10 +2194,25 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y13">
+        <v>-1.27</v>
+      </c>
+      <c r="Z13">
+        <v>36.19</v>
+      </c>
+      <c r="AA13">
+        <v>9.140000000000001</v>
       </c>
       <c r="AC13" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2007,22 +2220,25 @@
       <c r="AG13">
         <v>2.697246551513672</v>
       </c>
-      <c r="AH13" t="s">
-        <v>164</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300507</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.27</v>
@@ -2040,7 +2256,7 @@
         <v>105378.84</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -2082,10 +2298,25 @@
         <v>-1.65</v>
       </c>
       <c r="X14" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y14">
+        <v>0.6</v>
+      </c>
+      <c r="Z14">
+        <v>10.28</v>
+      </c>
+      <c r="AA14">
+        <v>1.98</v>
       </c>
       <c r="AC14" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2093,22 +2324,25 @@
       <c r="AG14">
         <v>7.387477874755859</v>
       </c>
-      <c r="AH14" t="s">
-        <v>164</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300521</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>5.43</v>
@@ -2126,7 +2360,7 @@
         <v>51122.88</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -2168,10 +2402,25 @@
         <v>0.54</v>
       </c>
       <c r="X15" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y15">
+        <v>-3.98</v>
+      </c>
+      <c r="Z15">
+        <v>33.81</v>
+      </c>
+      <c r="AA15">
+        <v>1.23</v>
       </c>
       <c r="AC15" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2179,22 +2428,25 @@
       <c r="AG15">
         <v>3.756278991699219</v>
       </c>
-      <c r="AH15" t="s">
-        <v>164</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300539</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -2212,7 +2464,7 @@
         <v>107785.46</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K16">
         <v>12</v>
@@ -2254,10 +2506,25 @@
         <v>1.55</v>
       </c>
       <c r="X16" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y16">
+        <v>1.34</v>
+      </c>
+      <c r="Z16">
+        <v>52.89</v>
+      </c>
+      <c r="AA16">
+        <v>9.1</v>
       </c>
       <c r="AC16" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2265,22 +2532,25 @@
       <c r="AG16">
         <v>8.996645927429199</v>
       </c>
-      <c r="AH16" t="s">
-        <v>164</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300602</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>3.86</v>
@@ -2298,7 +2568,7 @@
         <v>197632.87</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2340,10 +2610,25 @@
         <v>1.22</v>
       </c>
       <c r="X17" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y17">
+        <v>-2.95</v>
+      </c>
+      <c r="Z17">
+        <v>35.88</v>
+      </c>
+      <c r="AA17">
+        <v>1.76</v>
       </c>
       <c r="AC17" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2351,22 +2636,25 @@
       <c r="AG17">
         <v>-0.01371094863861799</v>
       </c>
-      <c r="AH17" t="s">
-        <v>164</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300604</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>4.53</v>
@@ -2384,7 +2672,7 @@
         <v>251525.66</v>
       </c>
       <c r="J18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18">
         <v>19</v>
@@ -2426,10 +2714,25 @@
         <v>0.4</v>
       </c>
       <c r="X18" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y18">
+        <v>20</v>
+      </c>
+      <c r="Z18">
+        <v>80.27</v>
+      </c>
+      <c r="AA18">
+        <v>20</v>
       </c>
       <c r="AC18" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2437,22 +2740,25 @@
       <c r="AG18">
         <v>4.364084720611572</v>
       </c>
-      <c r="AH18" t="s">
-        <v>164</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300620</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>10.27</v>
@@ -2470,7 +2776,7 @@
         <v>506942.16</v>
       </c>
       <c r="J19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -2512,10 +2818,25 @@
         <v>0.33</v>
       </c>
       <c r="X19" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y19">
+        <v>-1.85</v>
+      </c>
+      <c r="Z19">
+        <v>140.6</v>
+      </c>
+      <c r="AA19">
+        <v>1.73</v>
       </c>
       <c r="AC19" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2523,22 +2844,25 @@
       <c r="AG19">
         <v>-12.93973350524902</v>
       </c>
-      <c r="AH19" t="s">
-        <v>165</v>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300684</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>2.78</v>
@@ -2556,7 +2880,7 @@
         <v>144581.54</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2598,10 +2922,25 @@
         <v>1.53</v>
       </c>
       <c r="X20" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y20">
+        <v>-4.84</v>
+      </c>
+      <c r="Z20">
+        <v>45.5</v>
+      </c>
+      <c r="AA20">
+        <v>1.88</v>
       </c>
       <c r="AC20" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2609,22 +2948,25 @@
       <c r="AG20">
         <v>9.087471008300781</v>
       </c>
-      <c r="AH20" t="s">
-        <v>164</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300803</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>5.09</v>
@@ -2642,7 +2984,7 @@
         <v>689989.73</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K21">
         <v>30</v>
@@ -2684,10 +3026,25 @@
         <v>0.26</v>
       </c>
       <c r="X21" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y21">
+        <v>-3.44</v>
+      </c>
+      <c r="Z21">
+        <v>156.9</v>
+      </c>
+      <c r="AA21">
+        <v>-2.67</v>
       </c>
       <c r="AC21" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2695,22 +3052,25 @@
       <c r="AG21">
         <v>-0.7757198810577393</v>
       </c>
-      <c r="AH21" t="s">
-        <v>164</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300806</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>6.5</v>
@@ -2728,7 +3088,7 @@
         <v>86889.46000000001</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -2770,10 +3130,25 @@
         <v>0.25</v>
       </c>
       <c r="X22" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y22">
+        <v>-3.07</v>
+      </c>
+      <c r="Z22">
+        <v>27.87</v>
+      </c>
+      <c r="AA22">
+        <v>0.61</v>
       </c>
       <c r="AC22" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2781,22 +3156,25 @@
       <c r="AG22">
         <v>5.504487991333008</v>
       </c>
-      <c r="AH22" t="s">
-        <v>164</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300814</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0.02</v>
@@ -2814,7 +3192,7 @@
         <v>76170.67</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2856,10 +3234,25 @@
         <v>0.45</v>
       </c>
       <c r="X23" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y23">
+        <v>-0.67</v>
+      </c>
+      <c r="Z23">
+        <v>58.5</v>
+      </c>
+      <c r="AA23">
+        <v>12.48</v>
       </c>
       <c r="AC23" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2867,22 +3260,25 @@
       <c r="AG23">
         <v>3.417983770370483</v>
       </c>
-      <c r="AH23" t="s">
-        <v>164</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300843</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>5.83</v>
@@ -2900,7 +3296,7 @@
         <v>91331.33</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2942,10 +3338,25 @@
         <v>0.22</v>
       </c>
       <c r="X24" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y24">
+        <v>-6.78</v>
+      </c>
+      <c r="Z24">
+        <v>61.98</v>
+      </c>
+      <c r="AA24">
+        <v>1.29</v>
       </c>
       <c r="AC24" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2953,22 +3364,25 @@
       <c r="AG24">
         <v>6.191770076751709</v>
       </c>
-      <c r="AH24" t="s">
-        <v>165</v>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300857</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>7.1</v>
@@ -2986,7 +3400,7 @@
         <v>385624.01</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K25">
         <v>22</v>
@@ -3028,10 +3442,25 @@
         <v>0.27</v>
       </c>
       <c r="X25" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y25">
+        <v>-3.46</v>
+      </c>
+      <c r="Z25">
+        <v>179.59</v>
+      </c>
+      <c r="AA25">
+        <v>2.61</v>
       </c>
       <c r="AC25" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3039,22 +3468,25 @@
       <c r="AG25">
         <v>6.322088718414307</v>
       </c>
-      <c r="AH25" t="s">
-        <v>164</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300859</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-1.54</v>
@@ -3072,7 +3504,7 @@
         <v>119553.54</v>
       </c>
       <c r="J26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K26">
         <v>10</v>
@@ -3114,10 +3546,25 @@
         <v>-0.16</v>
       </c>
       <c r="X26" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y26">
+        <v>-7.81</v>
+      </c>
+      <c r="Z26">
+        <v>54.5</v>
+      </c>
+      <c r="AA26">
+        <v>-2.87</v>
       </c>
       <c r="AC26" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3125,22 +3572,25 @@
       <c r="AG26">
         <v>-1.964542746543884</v>
       </c>
-      <c r="AH26" t="s">
-        <v>164</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300959</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>11</v>
@@ -3158,7 +3608,7 @@
         <v>128311.71</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -3200,10 +3650,25 @@
         <v>0.89</v>
       </c>
       <c r="X27" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Y27">
+        <v>-0.75</v>
+      </c>
+      <c r="Z27">
+        <v>82.19</v>
+      </c>
+      <c r="AA27">
+        <v>2.74</v>
       </c>
       <c r="AC27" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3211,22 +3676,25 @@
       <c r="AG27">
         <v>7.777886867523193</v>
       </c>
-      <c r="AH27" t="s">
-        <v>164</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300969</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>4.87</v>
@@ -3244,7 +3712,7 @@
         <v>49946.39</v>
       </c>
       <c r="J28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3286,10 +3754,25 @@
         <v>0.76</v>
       </c>
       <c r="X28" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y28">
+        <v>15.26</v>
+      </c>
+      <c r="Z28">
+        <v>143.7</v>
+      </c>
+      <c r="AA28">
+        <v>19.15</v>
       </c>
       <c r="AC28" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3297,22 +3780,25 @@
       <c r="AG28">
         <v>1.546208143234253</v>
       </c>
-      <c r="AH28" t="s">
-        <v>164</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300984</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>3.96</v>
@@ -3330,7 +3816,7 @@
         <v>47367.1</v>
       </c>
       <c r="J29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -3372,10 +3858,25 @@
         <v>0.09</v>
       </c>
       <c r="X29" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="Y29">
+        <v>-1.48</v>
+      </c>
+      <c r="Z29">
+        <v>78.72</v>
+      </c>
+      <c r="AA29">
+        <v>1.05</v>
       </c>
       <c r="AC29" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3383,22 +3884,25 @@
       <c r="AG29">
         <v>4.697228908538818</v>
       </c>
-      <c r="AH29" t="s">
-        <v>164</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301008</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>12.79</v>
@@ -3416,7 +3920,7 @@
         <v>104228.67</v>
       </c>
       <c r="J30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3458,10 +3962,25 @@
         <v>1.46</v>
       </c>
       <c r="X30" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y30">
+        <v>8.16</v>
+      </c>
+      <c r="Z30">
+        <v>55.05</v>
+      </c>
+      <c r="AA30">
+        <v>13.51</v>
       </c>
       <c r="AC30" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3469,22 +3988,25 @@
       <c r="AG30">
         <v>-1.568506717681885</v>
       </c>
-      <c r="AH30" t="s">
-        <v>164</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301013</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>14.62</v>
@@ -3502,7 +4024,7 @@
         <v>250726.17</v>
       </c>
       <c r="J31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3544,10 +4066,25 @@
         <v>-1.86</v>
       </c>
       <c r="X31" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y31">
+        <v>-2.89</v>
+      </c>
+      <c r="Z31">
+        <v>30.88</v>
+      </c>
+      <c r="AA31">
+        <v>1.25</v>
       </c>
       <c r="AC31" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>1</v>
@@ -3555,22 +4092,25 @@
       <c r="AG31">
         <v>23.75839424133301</v>
       </c>
-      <c r="AH31" t="s">
-        <v>164</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301018</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>6.45</v>
@@ -3588,7 +4128,7 @@
         <v>110873.93</v>
       </c>
       <c r="J32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -3630,10 +4170,25 @@
         <v>0.29</v>
       </c>
       <c r="X32" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y32">
+        <v>-5.3</v>
+      </c>
+      <c r="Z32">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="AA32">
+        <v>3.59</v>
       </c>
       <c r="AC32" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3641,22 +4196,25 @@
       <c r="AG32">
         <v>3.016619205474854</v>
       </c>
-      <c r="AH32" t="s">
-        <v>164</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301150</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>4.05</v>
@@ -3674,7 +4232,7 @@
         <v>110579.76</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K33">
         <v>15</v>
@@ -3716,10 +4274,25 @@
         <v>-1.29</v>
       </c>
       <c r="X33" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y33">
+        <v>-4.05</v>
+      </c>
+      <c r="Z33">
+        <v>44</v>
+      </c>
+      <c r="AA33">
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC33" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3727,22 +4300,25 @@
       <c r="AG33">
         <v>-2.074191570281982</v>
       </c>
-      <c r="AH33" t="s">
-        <v>164</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301183</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-0.31</v>
@@ -3760,7 +4336,7 @@
         <v>98098.64999999999</v>
       </c>
       <c r="J34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K34">
         <v>8</v>
@@ -3802,10 +4378,25 @@
         <v>-0.5</v>
       </c>
       <c r="X34" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y34">
+        <v>-7.03</v>
+      </c>
+      <c r="Z34">
+        <v>113.5</v>
+      </c>
+      <c r="AA34">
+        <v>3.42</v>
       </c>
       <c r="AC34" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3813,22 +4404,25 @@
       <c r="AG34">
         <v>84.54804992675781</v>
       </c>
-      <c r="AH34" t="s">
-        <v>164</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301307</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-0.1</v>
@@ -3846,7 +4440,7 @@
         <v>64166.07</v>
       </c>
       <c r="J35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K35">
         <v>9</v>
@@ -3888,10 +4482,25 @@
         <v>-0.78</v>
       </c>
       <c r="X35" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y35">
+        <v>0.28</v>
+      </c>
+      <c r="Z35">
+        <v>41.86</v>
+      </c>
+      <c r="AA35">
+        <v>4.65</v>
       </c>
       <c r="AC35" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3899,22 +4508,25 @@
       <c r="AG35">
         <v>1.549268126487732</v>
       </c>
-      <c r="AH35" t="s">
-        <v>164</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301308</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>9.960000000000001</v>
@@ -3932,7 +4544,7 @@
         <v>394168.86</v>
       </c>
       <c r="J36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3974,10 +4586,25 @@
         <v>0.58</v>
       </c>
       <c r="X36" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y36">
+        <v>2.56</v>
+      </c>
+      <c r="Z36">
+        <v>144.67</v>
+      </c>
+      <c r="AA36">
+        <v>2.82</v>
       </c>
       <c r="AC36" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3985,22 +4612,25 @@
       <c r="AG36">
         <v>-19.73957252502441</v>
       </c>
-      <c r="AH36" t="s">
-        <v>164</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301389</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>0.12</v>
@@ -4018,7 +4648,7 @@
         <v>122543.54</v>
       </c>
       <c r="J37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K37">
         <v>5</v>
@@ -4060,10 +4690,25 @@
         <v>0.32</v>
       </c>
       <c r="X37" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y37">
+        <v>-2.13</v>
+      </c>
+      <c r="Z37">
+        <v>78.58</v>
+      </c>
+      <c r="AA37">
+        <v>5.35</v>
       </c>
       <c r="AC37" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4071,22 +4716,25 @@
       <c r="AG37">
         <v>3.523892164230347</v>
       </c>
-      <c r="AH37" t="s">
-        <v>164</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301413</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>2.75</v>
@@ -4104,7 +4752,7 @@
         <v>94543.97</v>
       </c>
       <c r="J38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K38">
         <v>22</v>
@@ -4146,10 +4794,25 @@
         <v>-0.08</v>
       </c>
       <c r="X38" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y38">
+        <v>-2.85</v>
+      </c>
+      <c r="Z38">
+        <v>177.5</v>
+      </c>
+      <c r="AA38">
+        <v>1.02</v>
       </c>
       <c r="AC38" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4157,22 +4820,25 @@
       <c r="AG38">
         <v>4.621753215789795</v>
       </c>
-      <c r="AH38" t="s">
-        <v>164</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301488</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>0.12</v>
@@ -4190,7 +4856,7 @@
         <v>110188.98</v>
       </c>
       <c r="J39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K39">
         <v>19</v>
@@ -4232,10 +4898,25 @@
         <v>-0.11</v>
       </c>
       <c r="X39" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y39">
+        <v>4.38</v>
+      </c>
+      <c r="Z39">
+        <v>194.52</v>
+      </c>
+      <c r="AA39">
+        <v>5.54</v>
       </c>
       <c r="AC39" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4243,22 +4924,25 @@
       <c r="AG39">
         <v>2.722735404968262</v>
       </c>
-      <c r="AH39" t="s">
-        <v>164</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301489</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>11.75</v>
@@ -4276,7 +4960,7 @@
         <v>108600.54</v>
       </c>
       <c r="J40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K40">
         <v>10</v>
@@ -4318,10 +5002,25 @@
         <v>-0.09</v>
       </c>
       <c r="X40" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y40">
+        <v>0.15</v>
+      </c>
+      <c r="Z40">
+        <v>291.88</v>
+      </c>
+      <c r="AA40">
+        <v>8.92</v>
       </c>
       <c r="AC40" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>1</v>
@@ -4329,22 +5028,25 @@
       <c r="AG40">
         <v>7.281958103179932</v>
       </c>
-      <c r="AH40" t="s">
-        <v>164</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301550</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>7.92</v>
@@ -4362,7 +5064,7 @@
         <v>97680.53999999999</v>
       </c>
       <c r="J41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4404,10 +5106,25 @@
         <v>-0.18</v>
       </c>
       <c r="X41" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y41">
+        <v>1.49</v>
+      </c>
+      <c r="Z41">
+        <v>135.5</v>
+      </c>
+      <c r="AA41">
+        <v>3.86</v>
       </c>
       <c r="AC41" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4415,22 +5132,25 @@
       <c r="AG41">
         <v>0.6036487817764282</v>
       </c>
-      <c r="AH41" t="s">
-        <v>164</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301600</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>1.45</v>
@@ -4448,7 +5168,7 @@
         <v>36704.56</v>
       </c>
       <c r="J42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4490,10 +5210,25 @@
         <v>0.71</v>
       </c>
       <c r="X42" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="Y42">
+        <v>-2.24</v>
+      </c>
+      <c r="Z42">
+        <v>146</v>
+      </c>
+      <c r="AA42">
+        <v>0.01</v>
       </c>
       <c r="AC42" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4501,22 +5236,25 @@
       <c r="AG42">
         <v>0.8889098167419434</v>
       </c>
-      <c r="AH42" t="s">
-        <v>164</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688028</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>13.19</v>
@@ -4534,7 +5272,7 @@
         <v>83344.67999999999</v>
       </c>
       <c r="J43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K43">
         <v>11</v>
@@ -4576,10 +5314,25 @@
         <v>-0.95</v>
       </c>
       <c r="X43" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y43">
+        <v>-3.37</v>
+      </c>
+      <c r="Z43">
+        <v>51.83</v>
+      </c>
+      <c r="AA43">
+        <v>2.21</v>
       </c>
       <c r="AC43" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4587,22 +5340,25 @@
       <c r="AG43">
         <v>-4.730926513671875</v>
       </c>
-      <c r="AH43" t="s">
-        <v>164</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688041</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>10.7</v>
@@ -4620,7 +5376,7 @@
         <v>1817908.02</v>
       </c>
       <c r="J44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4662,10 +5418,25 @@
         <v>0.21</v>
       </c>
       <c r="X44" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y44">
+        <v>-2.51</v>
+      </c>
+      <c r="Z44">
+        <v>264.88</v>
+      </c>
+      <c r="AA44">
+        <v>1.4</v>
       </c>
       <c r="AC44" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4673,22 +5444,25 @@
       <c r="AG44">
         <v>-14.02177619934082</v>
       </c>
-      <c r="AH44" t="s">
-        <v>164</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688062</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>5.69</v>
@@ -4706,7 +5480,7 @@
         <v>120454.34</v>
       </c>
       <c r="J45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4748,10 +5522,25 @@
         <v>0.2</v>
       </c>
       <c r="X45" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Y45">
+        <v>-7.62</v>
+      </c>
+      <c r="Z45">
+        <v>54.35</v>
+      </c>
+      <c r="AA45">
+        <v>-0.2</v>
       </c>
       <c r="AC45" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4759,22 +5548,25 @@
       <c r="AG45">
         <v>7.593011856079102</v>
       </c>
-      <c r="AH45" t="s">
-        <v>164</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688110</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>9.98</v>
@@ -4792,7 +5584,7 @@
         <v>425369.78</v>
       </c>
       <c r="J46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4834,10 +5626,25 @@
         <v>0.45</v>
       </c>
       <c r="X46" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y46">
+        <v>-5.64</v>
+      </c>
+      <c r="Z46">
+        <v>123.38</v>
+      </c>
+      <c r="AA46">
+        <v>0.44</v>
       </c>
       <c r="AC46" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4845,22 +5652,25 @@
       <c r="AG46">
         <v>-17.96080780029297</v>
       </c>
-      <c r="AH46" t="s">
-        <v>164</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688123</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>15.35</v>
@@ -4878,7 +5688,7 @@
         <v>192184.76</v>
       </c>
       <c r="J47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4919,8 +5729,23 @@
       <c r="W47">
         <v>-0.74</v>
       </c>
+      <c r="Y47">
+        <v>11.22</v>
+      </c>
+      <c r="Z47">
+        <v>127.65</v>
+      </c>
+      <c r="AA47">
+        <v>18.31</v>
+      </c>
       <c r="AC47" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -4928,22 +5753,25 @@
       <c r="AG47">
         <v>7.521815299987793</v>
       </c>
-      <c r="AH47" t="s">
-        <v>164</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688135</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>5.46</v>
@@ -4961,7 +5789,7 @@
         <v>100854.53</v>
       </c>
       <c r="J48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K48">
         <v>15</v>
@@ -5003,10 +5831,25 @@
         <v>0.76</v>
       </c>
       <c r="X48" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y48">
+        <v>8.07</v>
+      </c>
+      <c r="Z48">
+        <v>38.9</v>
+      </c>
+      <c r="AA48">
+        <v>10.1</v>
       </c>
       <c r="AC48" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5014,22 +5857,25 @@
       <c r="AG48">
         <v>-13.94907665252686</v>
       </c>
-      <c r="AH48" t="s">
-        <v>164</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688167</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-2.53</v>
@@ -5047,7 +5893,7 @@
         <v>171468.75</v>
       </c>
       <c r="J49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K49">
         <v>12</v>
@@ -5089,10 +5935,25 @@
         <v>-1.2</v>
       </c>
       <c r="X49" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y49">
+        <v>-0.83</v>
+      </c>
+      <c r="Z49">
+        <v>176.55</v>
+      </c>
+      <c r="AA49">
+        <v>2.99</v>
       </c>
       <c r="AC49" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5100,22 +5961,25 @@
       <c r="AG49">
         <v>2.118718147277832</v>
       </c>
-      <c r="AH49" t="s">
-        <v>164</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688195</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>8.220000000000001</v>
@@ -5133,7 +5997,7 @@
         <v>203024.6</v>
       </c>
       <c r="J50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K50">
         <v>26</v>
@@ -5175,10 +6039,25 @@
         <v>0.18</v>
       </c>
       <c r="X50" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y50">
+        <v>0.7</v>
+      </c>
+      <c r="Z50">
+        <v>145.46</v>
+      </c>
+      <c r="AA50">
+        <v>1.72</v>
       </c>
       <c r="AC50" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5186,22 +6065,25 @@
       <c r="AG50">
         <v>4.88906717300415</v>
       </c>
-      <c r="AH50" t="s">
-        <v>164</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688205</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-3.9</v>
@@ -5219,7 +6101,7 @@
         <v>281583.64</v>
       </c>
       <c r="J51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -5261,10 +6143,25 @@
         <v>-1</v>
       </c>
       <c r="X51" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y51">
+        <v>-10.14</v>
+      </c>
+      <c r="Z51">
+        <v>151.35</v>
+      </c>
+      <c r="AA51">
+        <v>2.26</v>
       </c>
       <c r="AC51" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5272,22 +6169,25 @@
       <c r="AG51">
         <v>11.08687019348145</v>
       </c>
-      <c r="AH51" t="s">
-        <v>164</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688228</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>14.56</v>
@@ -5305,7 +6205,7 @@
         <v>128391.54</v>
       </c>
       <c r="J52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K52">
         <v>9</v>
@@ -5347,10 +6247,25 @@
         <v>0.12</v>
       </c>
       <c r="X52" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="Y52">
+        <v>-12.29</v>
+      </c>
+      <c r="Z52">
+        <v>207</v>
+      </c>
+      <c r="AA52">
+        <v>-3.27</v>
       </c>
       <c r="AC52" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5358,22 +6273,25 @@
       <c r="AG52">
         <v>13.48765563964844</v>
       </c>
-      <c r="AH52" t="s">
-        <v>164</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688306</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>3.99</v>
@@ -5391,7 +6309,7 @@
         <v>71446.77</v>
       </c>
       <c r="J53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -5433,10 +6351,25 @@
         <v>0.04</v>
       </c>
       <c r="X53" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="Y53">
+        <v>-3.84</v>
+      </c>
+      <c r="Z53">
+        <v>14.33</v>
+      </c>
+      <c r="AA53">
+        <v>1.92</v>
       </c>
       <c r="AC53" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5444,22 +6377,25 @@
       <c r="AG53">
         <v>-0.9442555904388428</v>
       </c>
-      <c r="AH53" t="s">
-        <v>164</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688339</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>11.41</v>
@@ -5477,7 +6413,7 @@
         <v>63239.64</v>
       </c>
       <c r="J54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5519,10 +6455,25 @@
         <v>0.49</v>
       </c>
       <c r="X54" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y54">
+        <v>-1.59</v>
+      </c>
+      <c r="Z54">
+        <v>29.38</v>
+      </c>
+      <c r="AA54">
+        <v>1.63</v>
       </c>
       <c r="AC54" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5530,22 +6481,25 @@
       <c r="AG54">
         <v>3.570045709609985</v>
       </c>
-      <c r="AH54" t="s">
-        <v>164</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688347</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -5563,7 +6517,7 @@
         <v>254869.35</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K55">
         <v>8</v>
@@ -5605,10 +6559,25 @@
         <v>-0.54</v>
       </c>
       <c r="X55" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y55">
+        <v>-3.26</v>
+      </c>
+      <c r="Z55">
+        <v>84.5</v>
+      </c>
+      <c r="AA55">
+        <v>-0.19</v>
       </c>
       <c r="AC55" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5616,22 +6585,25 @@
       <c r="AG55">
         <v>1.44538426399231</v>
       </c>
-      <c r="AH55" t="s">
-        <v>164</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688400</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>5.7</v>
@@ -5649,7 +6621,7 @@
         <v>194681.96</v>
       </c>
       <c r="J56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K56">
         <v>8</v>
@@ -5690,8 +6662,23 @@
       <c r="W56">
         <v>0.19</v>
       </c>
+      <c r="Y56">
+        <v>-2.54</v>
+      </c>
+      <c r="Z56">
+        <v>54.47</v>
+      </c>
+      <c r="AA56">
+        <v>1.59</v>
+      </c>
       <c r="AC56" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5699,22 +6686,25 @@
       <c r="AG56">
         <v>7.570099353790283</v>
       </c>
-      <c r="AH56" t="s">
-        <v>165</v>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688411</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>7.65</v>
@@ -5732,7 +6722,7 @@
         <v>71067.53</v>
       </c>
       <c r="J57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K57">
         <v>15</v>
@@ -5774,10 +6764,25 @@
         <v>-0.25</v>
       </c>
       <c r="X57" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y57">
+        <v>18.59</v>
+      </c>
+      <c r="Z57">
+        <v>259.5</v>
+      </c>
+      <c r="AA57">
+        <v>19.33</v>
       </c>
       <c r="AC57" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5785,22 +6790,25 @@
       <c r="AG57">
         <v>-11.75694561004639</v>
       </c>
-      <c r="AH57" t="s">
-        <v>164</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688498</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-1.74</v>
@@ -5818,7 +6826,7 @@
         <v>181074.21</v>
       </c>
       <c r="J58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K58">
         <v>9</v>
@@ -5860,10 +6868,25 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="Y58">
+        <v>-0.74</v>
+      </c>
+      <c r="Z58">
+        <v>415.28</v>
+      </c>
+      <c r="AA58">
+        <v>6.19</v>
       </c>
       <c r="AC58" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5871,22 +6894,25 @@
       <c r="AG58">
         <v>8.072813987731934</v>
       </c>
-      <c r="AH58" t="s">
-        <v>164</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688502</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-1.52</v>
@@ -5904,7 +6930,7 @@
         <v>71707.28</v>
       </c>
       <c r="J59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5946,10 +6972,25 @@
         <v>0.49</v>
       </c>
       <c r="X59" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y59">
+        <v>-0.22</v>
+      </c>
+      <c r="Z59">
+        <v>452.99</v>
+      </c>
+      <c r="AA59">
+        <v>-0</v>
       </c>
       <c r="AC59" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>1</v>
@@ -5957,22 +6998,25 @@
       <c r="AG59">
         <v>17.00229454040527</v>
       </c>
-      <c r="AH59" t="s">
-        <v>165</v>
+      <c r="AH59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688521</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>17.34</v>
@@ -5990,7 +7034,7 @@
         <v>808153.86</v>
       </c>
       <c r="J60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K60">
         <v>14</v>
@@ -6032,10 +7076,25 @@
         <v>0.51</v>
       </c>
       <c r="X60" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y60">
+        <v>1.48</v>
+      </c>
+      <c r="Z60">
+        <v>207.6</v>
+      </c>
+      <c r="AA60">
+        <v>2.27</v>
       </c>
       <c r="AC60" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6043,22 +7102,25 @@
       <c r="AG60">
         <v>-0.07499425113201141</v>
       </c>
-      <c r="AH60" t="s">
-        <v>164</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688525</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>5.64</v>
@@ -6076,7 +7138,7 @@
         <v>314784.41</v>
       </c>
       <c r="J61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -6118,10 +7180,25 @@
         <v>-0.13</v>
       </c>
       <c r="X61" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="Y61">
+        <v>3.57</v>
+      </c>
+      <c r="Z61">
+        <v>89.95999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>6.49</v>
       </c>
       <c r="AC61" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>1</v>
@@ -6129,22 +7206,25 @@
       <c r="AG61">
         <v>1.885725975036621</v>
       </c>
-      <c r="AH61" t="s">
-        <v>164</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688627</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>4.07</v>
@@ -6162,7 +7242,7 @@
         <v>70503.39999999999</v>
       </c>
       <c r="J62" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K62">
         <v>7</v>
@@ -6204,10 +7284,25 @@
         <v>0.52</v>
       </c>
       <c r="X62" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y62">
+        <v>16.97</v>
+      </c>
+      <c r="Z62">
+        <v>183.6</v>
+      </c>
+      <c r="AA62">
+        <v>20</v>
       </c>
       <c r="AC62" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>1</v>
@@ -6215,22 +7310,25 @@
       <c r="AG62">
         <v>3.952691555023193</v>
       </c>
-      <c r="AH62" t="s">
-        <v>165</v>
+      <c r="AH62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688629</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>2.62</v>
@@ -6248,7 +7346,7 @@
         <v>282882.76</v>
       </c>
       <c r="J63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K63">
         <v>8</v>
@@ -6290,10 +7388,25 @@
         <v>0.15</v>
       </c>
       <c r="X63" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y63">
+        <v>-3.62</v>
+      </c>
+      <c r="Z63">
+        <v>108.98</v>
+      </c>
+      <c r="AA63">
+        <v>1.19</v>
       </c>
       <c r="AC63" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6301,22 +7414,25 @@
       <c r="AG63">
         <v>9.398113250732422</v>
       </c>
-      <c r="AH63" t="s">
-        <v>164</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688678</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>12.27</v>
@@ -6334,7 +7450,7 @@
         <v>85521.45</v>
       </c>
       <c r="J64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -6376,10 +7492,25 @@
         <v>0.39</v>
       </c>
       <c r="X64" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y64">
+        <v>1.78</v>
+      </c>
+      <c r="Z64">
+        <v>37.39</v>
+      </c>
+      <c r="AA64">
+        <v>2.44</v>
       </c>
       <c r="AC64" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6387,22 +7518,25 @@
       <c r="AG64">
         <v>1.52349317073822</v>
       </c>
-      <c r="AH64" t="s">
-        <v>164</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688698</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>14.1</v>
@@ -6420,7 +7554,7 @@
         <v>94594.5</v>
       </c>
       <c r="J65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K65">
         <v>4</v>
@@ -6462,10 +7596,25 @@
         <v>0.52</v>
       </c>
       <c r="X65" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y65">
+        <v>-0.59</v>
+      </c>
+      <c r="Z65">
+        <v>87.78</v>
+      </c>
+      <c r="AA65">
+        <v>1.47</v>
       </c>
       <c r="AC65" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6473,22 +7622,25 @@
       <c r="AG65">
         <v>-1.058922052383423</v>
       </c>
-      <c r="AH65" t="s">
-        <v>164</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688766</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>3.06</v>
@@ -6506,7 +7658,7 @@
         <v>177131.4</v>
       </c>
       <c r="J66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K66">
         <v>5</v>
@@ -6548,10 +7700,25 @@
         <v>1.14</v>
       </c>
       <c r="X66" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y66">
+        <v>-2.05</v>
+      </c>
+      <c r="Z66">
+        <v>110.3</v>
+      </c>
+      <c r="AA66">
+        <v>1.44</v>
       </c>
       <c r="AC66" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6559,22 +7726,25 @@
       <c r="AG66">
         <v>-4.19509220123291</v>
       </c>
-      <c r="AH66" t="s">
-        <v>164</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688981</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>6.25</v>
@@ -6592,7 +7762,7 @@
         <v>1985861.43</v>
       </c>
       <c r="J67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K67">
         <v>8</v>
@@ -6634,10 +7804,25 @@
         <v>0.19</v>
       </c>
       <c r="X67" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y67">
+        <v>-0.32</v>
+      </c>
+      <c r="Z67">
+        <v>129.33</v>
+      </c>
+      <c r="AA67">
+        <v>0.32</v>
       </c>
       <c r="AC67" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6645,8 +7830,11 @@
       <c r="AG67">
         <v>5.405500411987305</v>
       </c>
-      <c r="AH67" t="s">
-        <v>164</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
